--- a/tests/testthat/fixtures/ex3/tables/dif_dich_mig.xlsx
+++ b/tests/testthat/fixtures/ex3/tables/dif_dich_mig.xlsx
@@ -511,16 +511,16 @@
         <v>2100</v>
       </c>
       <c r="D2" t="n">
-        <v>15481</v>
+        <v>15574</v>
       </c>
       <c r="E2" t="n">
         <v>19</v>
       </c>
       <c r="F2" t="n">
-        <v>15519</v>
+        <v>15612</v>
       </c>
       <c r="G2" t="n">
-        <v>15627</v>
+        <v>15719</v>
       </c>
     </row>
     <row r="3">
@@ -534,16 +534,16 @@
         <v>2100</v>
       </c>
       <c r="D3" t="n">
-        <v>15452</v>
+        <v>15530</v>
       </c>
       <c r="E3" t="n">
         <v>49</v>
       </c>
       <c r="F3" t="n">
-        <v>15550</v>
+        <v>15628</v>
       </c>
       <c r="G3" t="n">
-        <v>15827</v>
+        <v>15904</v>
       </c>
     </row>
   </sheetData>
@@ -573,7 +573,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>861</v>
+        <v>850</v>
       </c>
     </row>
     <row r="3">
@@ -581,7 +581,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>813</v>
+        <v>829</v>
       </c>
     </row>
     <row r="4">
@@ -589,7 +589,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>426</v>
+        <v>421</v>
       </c>
     </row>
   </sheetData>
@@ -659,16 +659,16 @@
         <v>22</v>
       </c>
       <c r="B2" t="n">
-        <v>0.031</v>
+        <v>0.004</v>
       </c>
       <c r="C2" t="n">
         <v>0.097</v>
       </c>
       <c r="D2" t="n">
-        <v>0.03</v>
+        <v>0.004</v>
       </c>
       <c r="E2" t="n">
-        <v>0.102</v>
+        <v>0.002</v>
       </c>
       <c r="F2" t="n">
         <v>117.283</v>
@@ -688,16 +688,16 @@
         <v>23</v>
       </c>
       <c r="B3" t="n">
-        <v>0.151</v>
+        <v>0.158</v>
       </c>
       <c r="C3" t="n">
-        <v>0.083</v>
+        <v>0.084</v>
       </c>
       <c r="D3" t="n">
-        <v>0.147</v>
+        <v>0.153</v>
       </c>
       <c r="E3" t="n">
-        <v>3.31</v>
+        <v>3.538</v>
       </c>
       <c r="F3" t="n">
         <v>117.283</v>
@@ -717,16 +717,16 @@
         <v>24</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.097</v>
+        <v>0.075</v>
       </c>
       <c r="C4" t="n">
-        <v>0.112</v>
+        <v>0.111</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.095</v>
+        <v>0.073</v>
       </c>
       <c r="E4" t="n">
-        <v>0.75</v>
+        <v>0.457</v>
       </c>
       <c r="F4" t="n">
         <v>117.283</v>
@@ -746,16 +746,16 @@
         <v>25</v>
       </c>
       <c r="B5" t="n">
-        <v>0.297</v>
+        <v>0.169</v>
       </c>
       <c r="C5" t="n">
         <v>0.13</v>
       </c>
       <c r="D5" t="n">
-        <v>0.289</v>
+        <v>0.163</v>
       </c>
       <c r="E5" t="n">
-        <v>5.219</v>
+        <v>1.69</v>
       </c>
       <c r="F5" t="n">
         <v>117.283</v>
@@ -775,16 +775,16 @@
         <v>26</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.184</v>
+        <v>-0.207</v>
       </c>
       <c r="C6" t="n">
         <v>0.127</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.179</v>
+        <v>-0.2</v>
       </c>
       <c r="E6" t="n">
-        <v>2.099</v>
+        <v>2.657</v>
       </c>
       <c r="F6" t="n">
         <v>117.283</v>
@@ -804,16 +804,16 @@
         <v>27</v>
       </c>
       <c r="B7" t="n">
-        <v>0.006</v>
+        <v>0.002</v>
       </c>
       <c r="C7" t="n">
-        <v>0.123</v>
+        <v>0.125</v>
       </c>
       <c r="D7" t="n">
-        <v>0.006</v>
+        <v>0.002</v>
       </c>
       <c r="E7" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>117.283</v>
@@ -833,16 +833,16 @@
         <v>28</v>
       </c>
       <c r="B8" t="n">
-        <v>0.189</v>
+        <v>0.02</v>
       </c>
       <c r="C8" t="n">
-        <v>0.122</v>
+        <v>0.123</v>
       </c>
       <c r="D8" t="n">
-        <v>0.184</v>
+        <v>0.019</v>
       </c>
       <c r="E8" t="n">
-        <v>2.4</v>
+        <v>0.026</v>
       </c>
       <c r="F8" t="n">
         <v>117.283</v>
@@ -862,16 +862,16 @@
         <v>29</v>
       </c>
       <c r="B9" t="n">
-        <v>0.073</v>
+        <v>0.066</v>
       </c>
       <c r="C9" t="n">
-        <v>0.121</v>
+        <v>0.124</v>
       </c>
       <c r="D9" t="n">
-        <v>0.071</v>
+        <v>0.064</v>
       </c>
       <c r="E9" t="n">
-        <v>0.364</v>
+        <v>0.283</v>
       </c>
       <c r="F9" t="n">
         <v>117.283</v>
@@ -891,16 +891,16 @@
         <v>30</v>
       </c>
       <c r="B10" t="n">
-        <v>0.143</v>
+        <v>0.022</v>
       </c>
       <c r="C10" t="n">
-        <v>0.121</v>
+        <v>0.123</v>
       </c>
       <c r="D10" t="n">
-        <v>0.139</v>
+        <v>0.021</v>
       </c>
       <c r="E10" t="n">
-        <v>1.397</v>
+        <v>0.032</v>
       </c>
       <c r="F10" t="n">
         <v>117.283</v>
@@ -920,16 +920,16 @@
         <v>31</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.261</v>
+        <v>-0.138</v>
       </c>
       <c r="C11" t="n">
-        <v>0.122</v>
+        <v>0.123</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.254</v>
+        <v>-0.134</v>
       </c>
       <c r="E11" t="n">
-        <v>4.577</v>
+        <v>1.259</v>
       </c>
       <c r="F11" t="n">
         <v>117.283</v>
@@ -949,16 +949,16 @@
         <v>32</v>
       </c>
       <c r="B12" t="n">
-        <v>0.061</v>
+        <v>0.305</v>
       </c>
       <c r="C12" t="n">
-        <v>0.125</v>
+        <v>0.127</v>
       </c>
       <c r="D12" t="n">
-        <v>0.059</v>
+        <v>0.295</v>
       </c>
       <c r="E12" t="n">
-        <v>0.238</v>
+        <v>5.768</v>
       </c>
       <c r="F12" t="n">
         <v>117.283</v>
@@ -978,16 +978,16 @@
         <v>33</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.255</v>
+        <v>-0.083</v>
       </c>
       <c r="C13" t="n">
-        <v>0.132</v>
+        <v>0.133</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.248</v>
+        <v>-0.08</v>
       </c>
       <c r="E13" t="n">
-        <v>3.732</v>
+        <v>0.389</v>
       </c>
       <c r="F13" t="n">
         <v>117.283</v>
@@ -1007,16 +1007,16 @@
         <v>34</v>
       </c>
       <c r="B14" t="n">
+        <v>-0.266</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.123</v>
+      </c>
+      <c r="D14" t="n">
         <v>-0.257</v>
       </c>
-      <c r="C14" t="n">
-        <v>0.121</v>
-      </c>
-      <c r="D14" t="n">
-        <v>-0.25</v>
-      </c>
       <c r="E14" t="n">
-        <v>4.511</v>
+        <v>4.677</v>
       </c>
       <c r="F14" t="n">
         <v>117.283</v>
@@ -1036,16 +1036,16 @@
         <v>35</v>
       </c>
       <c r="B15" t="n">
-        <v>0.347</v>
+        <v>0.227</v>
       </c>
       <c r="C15" t="n">
-        <v>0.12</v>
+        <v>0.122</v>
       </c>
       <c r="D15" t="n">
-        <v>0.338</v>
+        <v>0.22</v>
       </c>
       <c r="E15" t="n">
-        <v>8.362</v>
+        <v>3.462</v>
       </c>
       <c r="F15" t="n">
         <v>117.283</v>
@@ -1065,16 +1065,16 @@
         <v>36</v>
       </c>
       <c r="B16" t="n">
-        <v>0.116</v>
+        <v>0.055</v>
       </c>
       <c r="C16" t="n">
-        <v>0.126</v>
+        <v>0.129</v>
       </c>
       <c r="D16" t="n">
-        <v>0.113</v>
+        <v>0.053</v>
       </c>
       <c r="E16" t="n">
-        <v>0.848</v>
+        <v>0.182</v>
       </c>
       <c r="F16" t="n">
         <v>117.283</v>
@@ -1094,16 +1094,16 @@
         <v>37</v>
       </c>
       <c r="B17" t="n">
-        <v>0.361</v>
+        <v>0.409</v>
       </c>
       <c r="C17" t="n">
-        <v>0.462</v>
+        <v>0.468</v>
       </c>
       <c r="D17" t="n">
-        <v>0.352</v>
+        <v>0.396</v>
       </c>
       <c r="E17" t="n">
-        <v>0.611</v>
+        <v>0.764</v>
       </c>
       <c r="F17" t="n">
         <v>117.283</v>
@@ -1166,16 +1166,16 @@
         <v>22</v>
       </c>
       <c r="B2" t="n">
-        <v>0.181</v>
+        <v>0.005</v>
       </c>
       <c r="C2" t="n">
-        <v>0.097</v>
+        <v>0.099</v>
       </c>
       <c r="D2" t="n">
-        <v>0.176</v>
+        <v>0.005</v>
       </c>
       <c r="E2" t="n">
-        <v>3.482</v>
+        <v>0.003</v>
       </c>
       <c r="F2" t="n">
         <v>117.283</v>
@@ -1195,16 +1195,16 @@
         <v>23</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.099</v>
+        <v>0.17</v>
       </c>
       <c r="C3" t="n">
-        <v>0.081</v>
+        <v>0.082</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.096</v>
+        <v>0.164</v>
       </c>
       <c r="E3" t="n">
-        <v>1.494</v>
+        <v>4.298</v>
       </c>
       <c r="F3" t="n">
         <v>117.283</v>
@@ -1224,16 +1224,16 @@
         <v>24</v>
       </c>
       <c r="B4" t="n">
-        <v>0.075</v>
+        <v>-0.129</v>
       </c>
       <c r="C4" t="n">
-        <v>0.102</v>
+        <v>0.103</v>
       </c>
       <c r="D4" t="n">
-        <v>0.073</v>
+        <v>-0.125</v>
       </c>
       <c r="E4" t="n">
-        <v>0.541</v>
+        <v>1.569</v>
       </c>
       <c r="F4" t="n">
         <v>117.283</v>
@@ -1253,16 +1253,16 @@
         <v>25</v>
       </c>
       <c r="B5" t="n">
-        <v>0.551</v>
+        <v>-0.29</v>
       </c>
       <c r="C5" t="n">
-        <v>0.125</v>
+        <v>0.127</v>
       </c>
       <c r="D5" t="n">
-        <v>0.537</v>
+        <v>-0.281</v>
       </c>
       <c r="E5" t="n">
-        <v>19.43</v>
+        <v>5.214</v>
       </c>
       <c r="F5" t="n">
         <v>117.283</v>
@@ -1282,16 +1282,16 @@
         <v>26</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.269</v>
+        <v>-0.351</v>
       </c>
       <c r="C6" t="n">
-        <v>0.124</v>
+        <v>0.126</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.262</v>
+        <v>-0.34</v>
       </c>
       <c r="E6" t="n">
-        <v>4.706</v>
+        <v>7.76</v>
       </c>
       <c r="F6" t="n">
         <v>117.283</v>
@@ -1311,16 +1311,16 @@
         <v>27</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.276</v>
+        <v>0.426</v>
       </c>
       <c r="C7" t="n">
-        <v>0.119</v>
+        <v>0.122</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.269</v>
+        <v>0.412</v>
       </c>
       <c r="E7" t="n">
-        <v>5.379</v>
+        <v>12.193</v>
       </c>
       <c r="F7" t="n">
         <v>117.283</v>
@@ -1340,16 +1340,16 @@
         <v>28</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.041</v>
+        <v>-0.101</v>
       </c>
       <c r="C8" t="n">
-        <v>0.118</v>
+        <v>0.12</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.04</v>
+        <v>-0.098</v>
       </c>
       <c r="E8" t="n">
-        <v>0.121</v>
+        <v>0.708</v>
       </c>
       <c r="F8" t="n">
         <v>117.283</v>
@@ -1369,16 +1369,16 @@
         <v>29</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.278</v>
+        <v>0.658</v>
       </c>
       <c r="C9" t="n">
-        <v>0.116</v>
+        <v>0.12</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.271</v>
+        <v>0.637</v>
       </c>
       <c r="E9" t="n">
-        <v>5.743</v>
+        <v>30.067</v>
       </c>
       <c r="F9" t="n">
         <v>117.283</v>
@@ -1398,16 +1398,16 @@
         <v>30</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.134</v>
+        <v>0.414</v>
       </c>
       <c r="C10" t="n">
-        <v>0.115</v>
+        <v>0.118</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.131</v>
+        <v>0.401</v>
       </c>
       <c r="E10" t="n">
-        <v>1.358</v>
+        <v>12.309</v>
       </c>
       <c r="F10" t="n">
         <v>117.283</v>
@@ -1427,16 +1427,16 @@
         <v>31</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.219</v>
+        <v>-0.365</v>
       </c>
       <c r="C11" t="n">
-        <v>0.116</v>
+        <v>0.119</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.213</v>
+        <v>-0.353</v>
       </c>
       <c r="E11" t="n">
-        <v>3.564</v>
+        <v>9.408</v>
       </c>
       <c r="F11" t="n">
         <v>117.283</v>
@@ -1456,16 +1456,16 @@
         <v>32</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.068</v>
+        <v>0.669</v>
       </c>
       <c r="C12" t="n">
-        <v>0.117</v>
+        <v>0.121</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.066</v>
+        <v>0.647</v>
       </c>
       <c r="E12" t="n">
-        <v>0.338</v>
+        <v>30.569</v>
       </c>
       <c r="F12" t="n">
         <v>117.283</v>
@@ -1485,16 +1485,16 @@
         <v>33</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.05</v>
+        <v>0.244</v>
       </c>
       <c r="C13" t="n">
-        <v>0.121</v>
+        <v>0.125</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.049</v>
+        <v>0.236</v>
       </c>
       <c r="E13" t="n">
-        <v>0.171</v>
+        <v>3.81</v>
       </c>
       <c r="F13" t="n">
         <v>117.283</v>
@@ -1514,16 +1514,16 @@
         <v>34</v>
       </c>
       <c r="B14" t="n">
-        <v>0.064</v>
+        <v>-0.68</v>
       </c>
       <c r="C14" t="n">
-        <v>0.112</v>
+        <v>0.116</v>
       </c>
       <c r="D14" t="n">
-        <v>0.062</v>
+        <v>-0.658</v>
       </c>
       <c r="E14" t="n">
-        <v>0.327</v>
+        <v>34.364</v>
       </c>
       <c r="F14" t="n">
         <v>117.283</v>
@@ -1535,7 +1535,7 @@
         <v>2098</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0.999</v>
       </c>
     </row>
     <row r="15">
@@ -1543,16 +1543,16 @@
         <v>35</v>
       </c>
       <c r="B15" t="n">
-        <v>0.571</v>
+        <v>0.186</v>
       </c>
       <c r="C15" t="n">
-        <v>0.112</v>
+        <v>0.116</v>
       </c>
       <c r="D15" t="n">
-        <v>0.556</v>
+        <v>0.18</v>
       </c>
       <c r="E15" t="n">
-        <v>25.992</v>
+        <v>2.571</v>
       </c>
       <c r="F15" t="n">
         <v>117.283</v>
@@ -1572,16 +1572,16 @@
         <v>36</v>
       </c>
       <c r="B16" t="n">
-        <v>0.087</v>
+        <v>-0.159</v>
       </c>
       <c r="C16" t="n">
-        <v>0.115</v>
+        <v>0.12</v>
       </c>
       <c r="D16" t="n">
-        <v>0.085</v>
+        <v>-0.154</v>
       </c>
       <c r="E16" t="n">
-        <v>0.572</v>
+        <v>1.756</v>
       </c>
       <c r="F16" t="n">
         <v>117.283</v>
@@ -1601,16 +1601,16 @@
         <v>37</v>
       </c>
       <c r="B17" t="n">
-        <v>0.094</v>
+        <v>0.698</v>
       </c>
       <c r="C17" t="n">
-        <v>0.439</v>
+        <v>0.45</v>
       </c>
       <c r="D17" t="n">
-        <v>0.092</v>
+        <v>0.675</v>
       </c>
       <c r="E17" t="n">
-        <v>0.046</v>
+        <v>2.406</v>
       </c>
       <c r="F17" t="n">
         <v>117.283</v>
@@ -1673,16 +1673,16 @@
         <v>22</v>
       </c>
       <c r="B2" t="n">
-        <v>0.15</v>
+        <v>0.002</v>
       </c>
       <c r="C2" t="n">
         <v>0.096</v>
       </c>
       <c r="D2" t="n">
-        <v>0.146</v>
+        <v>0.002</v>
       </c>
       <c r="E2" t="n">
-        <v>2.441</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>117.283</v>
@@ -1702,16 +1702,16 @@
         <v>23</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.251</v>
+        <v>0.012</v>
       </c>
       <c r="C3" t="n">
         <v>0.086</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.245</v>
+        <v>0.012</v>
       </c>
       <c r="E3" t="n">
-        <v>8.518</v>
+        <v>0.019</v>
       </c>
       <c r="F3" t="n">
         <v>117.283</v>
@@ -1731,16 +1731,16 @@
         <v>24</v>
       </c>
       <c r="B4" t="n">
-        <v>0.172</v>
+        <v>-0.205</v>
       </c>
       <c r="C4" t="n">
-        <v>0.121</v>
+        <v>0.119</v>
       </c>
       <c r="D4" t="n">
-        <v>0.168</v>
+        <v>-0.198</v>
       </c>
       <c r="E4" t="n">
-        <v>2.021</v>
+        <v>2.968</v>
       </c>
       <c r="F4" t="n">
         <v>117.283</v>
@@ -1760,16 +1760,16 @@
         <v>25</v>
       </c>
       <c r="B5" t="n">
-        <v>0.255</v>
+        <v>-0.459</v>
       </c>
       <c r="C5" t="n">
-        <v>0.134</v>
+        <v>0.133</v>
       </c>
       <c r="D5" t="n">
-        <v>0.248</v>
+        <v>-0.444</v>
       </c>
       <c r="E5" t="n">
-        <v>3.621</v>
+        <v>11.91</v>
       </c>
       <c r="F5" t="n">
         <v>117.283</v>
@@ -1789,16 +1789,16 @@
         <v>26</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.086</v>
+        <v>-0.144</v>
       </c>
       <c r="C6" t="n">
         <v>0.129</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.084</v>
+        <v>-0.139</v>
       </c>
       <c r="E6" t="n">
-        <v>0.444</v>
+        <v>1.246</v>
       </c>
       <c r="F6" t="n">
         <v>117.283</v>
@@ -1818,16 +1818,16 @@
         <v>27</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.282</v>
+        <v>0.425</v>
       </c>
       <c r="C7" t="n">
-        <v>0.127</v>
+        <v>0.128</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.275</v>
+        <v>0.411</v>
       </c>
       <c r="E7" t="n">
-        <v>4.93</v>
+        <v>11.024</v>
       </c>
       <c r="F7" t="n">
         <v>117.283</v>
@@ -1847,16 +1847,16 @@
         <v>28</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.229</v>
+        <v>-0.121</v>
       </c>
       <c r="C8" t="n">
-        <v>0.127</v>
+        <v>0.126</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.223</v>
+        <v>-0.117</v>
       </c>
       <c r="E8" t="n">
-        <v>3.251</v>
+        <v>0.922</v>
       </c>
       <c r="F8" t="n">
         <v>117.283</v>
@@ -1876,16 +1876,16 @@
         <v>29</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.351</v>
+        <v>0.591</v>
       </c>
       <c r="C9" t="n">
-        <v>0.125</v>
+        <v>0.128</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.342</v>
+        <v>0.572</v>
       </c>
       <c r="E9" t="n">
-        <v>7.885</v>
+        <v>21.318</v>
       </c>
       <c r="F9" t="n">
         <v>117.283</v>
@@ -1905,16 +1905,16 @@
         <v>30</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.277</v>
+        <v>0.392</v>
       </c>
       <c r="C10" t="n">
-        <v>0.126</v>
+        <v>0.128</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.27</v>
+        <v>0.379</v>
       </c>
       <c r="E10" t="n">
-        <v>4.833</v>
+        <v>9.379</v>
       </c>
       <c r="F10" t="n">
         <v>117.283</v>
@@ -1934,16 +1934,16 @@
         <v>31</v>
       </c>
       <c r="B11" t="n">
-        <v>0.042</v>
+        <v>-0.227</v>
       </c>
       <c r="C11" t="n">
         <v>0.128</v>
       </c>
       <c r="D11" t="n">
-        <v>0.041</v>
+        <v>-0.22</v>
       </c>
       <c r="E11" t="n">
-        <v>0.108</v>
+        <v>3.145</v>
       </c>
       <c r="F11" t="n">
         <v>117.283</v>
@@ -1963,16 +1963,16 @@
         <v>32</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.129</v>
+        <v>0.364</v>
       </c>
       <c r="C12" t="n">
-        <v>0.132</v>
+        <v>0.133</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.126</v>
+        <v>0.352</v>
       </c>
       <c r="E12" t="n">
-        <v>0.955</v>
+        <v>7.49</v>
       </c>
       <c r="F12" t="n">
         <v>117.283</v>
@@ -1992,16 +1992,16 @@
         <v>33</v>
       </c>
       <c r="B13" t="n">
-        <v>0.204</v>
+        <v>0.327</v>
       </c>
       <c r="C13" t="n">
-        <v>0.141</v>
+        <v>0.14</v>
       </c>
       <c r="D13" t="n">
-        <v>0.199</v>
+        <v>0.316</v>
       </c>
       <c r="E13" t="n">
-        <v>2.093</v>
+        <v>5.456</v>
       </c>
       <c r="F13" t="n">
         <v>117.283</v>
@@ -2021,16 +2021,16 @@
         <v>34</v>
       </c>
       <c r="B14" t="n">
-        <v>0.321</v>
+        <v>-0.413</v>
       </c>
       <c r="C14" t="n">
-        <v>0.129</v>
+        <v>0.13</v>
       </c>
       <c r="D14" t="n">
-        <v>0.313</v>
+        <v>-0.4</v>
       </c>
       <c r="E14" t="n">
-        <v>6.192</v>
+        <v>10.093</v>
       </c>
       <c r="F14" t="n">
         <v>117.283</v>
@@ -2050,16 +2050,16 @@
         <v>35</v>
       </c>
       <c r="B15" t="n">
-        <v>0.224</v>
+        <v>-0.042</v>
       </c>
       <c r="C15" t="n">
-        <v>0.128</v>
+        <v>0.129</v>
       </c>
       <c r="D15" t="n">
-        <v>0.218</v>
+        <v>-0.041</v>
       </c>
       <c r="E15" t="n">
-        <v>3.062</v>
+        <v>0.106</v>
       </c>
       <c r="F15" t="n">
         <v>117.283</v>
@@ -2079,16 +2079,16 @@
         <v>36</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.029</v>
+        <v>-0.213</v>
       </c>
       <c r="C16" t="n">
-        <v>0.136</v>
+        <v>0.138</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.028</v>
+        <v>-0.206</v>
       </c>
       <c r="E16" t="n">
-        <v>0.045</v>
+        <v>2.382</v>
       </c>
       <c r="F16" t="n">
         <v>117.283</v>
@@ -2108,16 +2108,16 @@
         <v>37</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.267</v>
+        <v>0.289</v>
       </c>
       <c r="C17" t="n">
-        <v>0.485</v>
+        <v>0.486</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.26</v>
+        <v>0.28</v>
       </c>
       <c r="E17" t="n">
-        <v>0.303</v>
+        <v>0.354</v>
       </c>
       <c r="F17" t="n">
         <v>117.283</v>
@@ -2162,10 +2162,10 @@
         <v>40</v>
       </c>
       <c r="B2" t="n">
-        <v>0.762</v>
+        <v>0.727</v>
       </c>
       <c r="C2" t="n">
-        <v>0.743</v>
+        <v>0.704</v>
       </c>
     </row>
     <row r="3">
@@ -2173,10 +2173,10 @@
         <v>41</v>
       </c>
       <c r="B3" t="n">
-        <v>0.734</v>
+        <v>0.707</v>
       </c>
       <c r="C3" t="n">
-        <v>0.716</v>
+        <v>0.686</v>
       </c>
     </row>
   </sheetData>
@@ -2209,10 +2209,10 @@
         <v>40</v>
       </c>
       <c r="B2" t="n">
-        <v>0.171</v>
+        <v>0.305</v>
       </c>
       <c r="C2" t="n">
-        <v>0.167</v>
+        <v>0.295</v>
       </c>
     </row>
     <row r="3">
@@ -2220,10 +2220,10 @@
         <v>41</v>
       </c>
       <c r="B3" t="n">
-        <v>0.166</v>
+        <v>0.298</v>
       </c>
       <c r="C3" t="n">
-        <v>0.162</v>
+        <v>0.289</v>
       </c>
     </row>
   </sheetData>
@@ -2256,10 +2256,10 @@
         <v>40</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.591</v>
+        <v>-0.422</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.576</v>
+        <v>-0.408</v>
       </c>
     </row>
     <row r="3">
@@ -2267,10 +2267,10 @@
         <v>41</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.568</v>
+        <v>-0.409</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.555</v>
+        <v>-0.397</v>
       </c>
     </row>
   </sheetData>
